--- a/data/trans_bre/POLIPATOLOGIA_2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_2-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,6; 20,55</t>
+          <t>12,13; 20,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,63; 18,64</t>
+          <t>10,59; 19,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,53; 23,53</t>
+          <t>14,78; 23,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,43; 21,33</t>
+          <t>11,5; 21,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>30,97; 56,37</t>
+          <t>29,35; 55,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,79; 40,49</t>
+          <t>20,25; 40,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>30,47; 56,71</t>
+          <t>31,36; 57,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,97; 40,99</t>
+          <t>19,78; 41,08</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,47; 11,58</t>
+          <t>6,55; 11,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,75; 12,06</t>
+          <t>6,49; 11,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,25; 11,69</t>
+          <t>6,06; 11,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,21; 38,62</t>
+          <t>12,71; 36,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>53,21; 114,61</t>
+          <t>55,54; 114,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>39,7; 84,74</t>
+          <t>39,1; 83,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>32,59; 69,96</t>
+          <t>31,83; 69,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>43,57; 182,79</t>
+          <t>45,14; 176,04</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,37; 11,9</t>
+          <t>2,82; 11,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,01; 13,92</t>
+          <t>3,88; 14,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 7,12</t>
+          <t>-3,25; 6,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,46; 14,67</t>
+          <t>5,25; 15,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,31; 122,22</t>
+          <t>20,72; 131,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>28,42; 161,21</t>
+          <t>25,73; 159,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-14,61; 45,78</t>
+          <t>-15,87; 40,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19,02; 61,64</t>
+          <t>17,08; 60,35</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,49; 15,89</t>
+          <t>11,66; 15,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,97; 16,69</t>
+          <t>12,07; 16,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,09; 14,58</t>
+          <t>10,2; 14,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,92; 31,71</t>
+          <t>14,65; 30,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>55,13; 84,93</t>
+          <t>56,65; 84,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>47,16; 72,45</t>
+          <t>47,22; 70,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>40,14; 64,62</t>
+          <t>40,96; 63,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>42,5; 122,37</t>
+          <t>44,49; 116,99</t>
         </is>
       </c>
     </row>
